--- a/PCBs/shepherd_cape_v2.3/Bill of Materials-shepherd_v2.3_inventar.xlsx
+++ b/PCBs/shepherd_cape_v2.3/Bill of Materials-shepherd_v2.3_inventar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\shepherd_v2\Project Outputs for shepherd_v2\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingmo\Documents\GitHub\shepherd_v2_planning\PCBs\shepherd_cape_v2.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172FA34C-E8C2-4B02-8567-8DD82CA6656B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA47D46-9AF7-48E5-AA72-C80174347BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1860" windowWidth="27732" windowHeight="23712" xr2:uid="{6588C57D-8B73-49B8-A971-5DE8A19552C9}"/>
+    <workbookView xWindow="11292" yWindow="1692" windowWidth="23352" windowHeight="24972" xr2:uid="{6588C57D-8B73-49B8-A971-5DE8A19552C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-shepherd_v2" sheetId="1" r:id="rId1"/>
@@ -1441,8 +1441,8 @@
   </sheetPr>
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L59" sqref="A1:L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3664,7 +3664,7 @@
       <c r="H74" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.15748031496062992" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PCBs/shepherd_cape_v2.3/Bill of Materials-shepherd_v2.3_inventar.xlsx
+++ b/PCBs/shepherd_cape_v2.3/Bill of Materials-shepherd_v2.3_inventar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingmo\Documents\GitHub\shepherd_v2_planning\PCBs\shepherd_cape_v2.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA47D46-9AF7-48E5-AA72-C80174347BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C650685-3A15-404E-A699-BDB62FDF199B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11292" yWindow="1692" windowWidth="23352" windowHeight="24972" xr2:uid="{6588C57D-8B73-49B8-A971-5DE8A19552C9}"/>
+    <workbookView xWindow="7200" yWindow="4128" windowWidth="24012" windowHeight="21216" xr2:uid="{6588C57D-8B73-49B8-A971-5DE8A19552C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-shepherd_v2" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="346">
   <si>
     <t>Comment</t>
   </si>
@@ -1017,7 +1024,55 @@
     <t>180nA, 20 PPM</t>
   </si>
   <si>
-    <t>16 MHz</t>
+    <t>863-SMMSD701T1G</t>
+  </si>
+  <si>
+    <t>755-RB168MM-40TR</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>652-CR0402FX-1003GLF</t>
+  </si>
+  <si>
+    <t>0.013</t>
+  </si>
+  <si>
+    <t>PMEG1001-Replace</t>
+  </si>
+  <si>
+    <t>R_0402_100k</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>May22 or Newark</t>
+  </si>
+  <si>
+    <t>Mar23</t>
+  </si>
+  <si>
+    <t>Mar22</t>
+  </si>
+  <si>
+    <t>-Q100H FEB22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--R Feb22, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">--R Jul22 </t>
+  </si>
+  <si>
+    <t>--R Apr22</t>
+  </si>
+  <si>
+    <t>-R7</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1088,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1043,6 +1098,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD3D3D3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1103,7 +1176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -1122,6 +1195,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1439,10 +1520,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L59" sqref="A1:L59"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1456,7 +1537,7 @@
     <col min="8" max="8" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1493,8 +1574,11 @@
       <c r="L1" s="4" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1529,11 +1613,11 @@
       <c r="K2" s="6">
         <v>200</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="12">
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1566,11 +1650,11 @@
       <c r="K3" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="12">
         <v>1500</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1605,11 +1689,11 @@
       <c r="K4" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="12">
         <v>1500</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -1645,7 +1729,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -1676,11 +1760,11 @@
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6">
+      <c r="L6" s="12">
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -1716,7 +1800,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>42</v>
       </c>
@@ -1752,7 +1836,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
@@ -1788,7 +1872,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>51</v>
       </c>
@@ -1824,7 +1908,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>55</v>
       </c>
@@ -1857,11 +1941,14 @@
         <v>1</v>
       </c>
       <c r="K11" s="6"/>
-      <c r="L11">
+      <c r="L11" s="13">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
@@ -1895,7 +1982,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>67</v>
       </c>
@@ -1929,7 +2016,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>71</v>
       </c>
@@ -1965,7 +2052,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>77</v>
       </c>
@@ -1999,7 +2086,7 @@
       </c>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>83</v>
       </c>
@@ -2406,7 +2493,7 @@
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6"/>
-      <c r="L27">
+      <c r="L27" s="12">
         <v>80</v>
       </c>
     </row>
@@ -2509,7 +2596,7 @@
       <c r="K30" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="12">
         <v>2000</v>
       </c>
     </row>
@@ -2583,7 +2670,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>162</v>
       </c>
@@ -2616,11 +2703,11 @@
       <c r="K33" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="12">
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>166</v>
       </c>
@@ -2654,7 +2741,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>171</v>
       </c>
@@ -2690,7 +2777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>175</v>
       </c>
@@ -2726,7 +2813,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>179</v>
       </c>
@@ -2762,7 +2849,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>183</v>
       </c>
@@ -2798,7 +2885,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>187</v>
       </c>
@@ -2832,7 +2919,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>191</v>
       </c>
@@ -2868,7 +2955,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>195</v>
       </c>
@@ -2902,7 +2989,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>200</v>
       </c>
@@ -2935,11 +3022,14 @@
       <c r="K42" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="13">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="15" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>206</v>
       </c>
@@ -2972,11 +3062,11 @@
       <c r="K43" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="12">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>211</v>
       </c>
@@ -3011,11 +3101,17 @@
       <c r="K44" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="13">
         <v>40</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M44" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="N44" s="14" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>217</v>
       </c>
@@ -3048,11 +3144,11 @@
       <c r="K45" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="12">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>222</v>
       </c>
@@ -3081,15 +3177,21 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="17">
         <v>6</v>
       </c>
       <c r="K46" s="6"/>
-      <c r="L46">
+      <c r="L46" s="13">
         <v>40</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M46" t="s">
+        <v>340</v>
+      </c>
+      <c r="N46" s="15" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>227</v>
       </c>
@@ -3120,11 +3222,11 @@
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
-      <c r="L47">
+      <c r="L47" s="12">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>231</v>
       </c>
@@ -3155,11 +3257,11 @@
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="6"/>
-      <c r="L48">
+      <c r="L48" s="12">
         <v>440</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>237</v>
       </c>
@@ -3192,11 +3294,11 @@
       <c r="K49" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="12">
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>242</v>
       </c>
@@ -3229,11 +3331,14 @@
       <c r="K50" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="13">
         <v>35</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="15" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>246</v>
       </c>
@@ -3268,11 +3373,14 @@
       <c r="K51" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="13">
         <v>35</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="15" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>251</v>
       </c>
@@ -3305,11 +3413,11 @@
       <c r="K52" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="12">
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>256</v>
       </c>
@@ -3342,11 +3450,14 @@
       <c r="K53" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="13">
         <v>35</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="15" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>261</v>
       </c>
@@ -3379,11 +3490,11 @@
       <c r="K54" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="12">
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>266</v>
       </c>
@@ -3416,11 +3527,11 @@
       <c r="K55" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="12">
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>272</v>
       </c>
@@ -3453,11 +3564,11 @@
       <c r="K56" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="12">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>277</v>
       </c>
@@ -3492,11 +3603,11 @@
       <c r="K57" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="12">
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>282</v>
       </c>
@@ -3529,11 +3640,11 @@
       <c r="K58" s="6">
         <v>80</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="12">
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>287</v>
       </c>
@@ -3564,11 +3675,11 @@
       </c>
       <c r="J59" s="6"/>
       <c r="K59" s="6"/>
-      <c r="L59">
+      <c r="L59" s="12">
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F60" s="9" t="s">
         <v>120</v>
       </c>
@@ -3582,7 +3693,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F61" s="9" t="s">
         <v>12</v>
       </c>
@@ -3596,7 +3707,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D62" s="5" t="s">
         <v>327</v>
       </c>
@@ -3612,11 +3723,17 @@
       <c r="H62" s="10" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L62" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D63" s="5" t="s">
         <v>328</v>
       </c>
+      <c r="E63" s="11" t="s">
+        <v>324</v>
+      </c>
       <c r="F63" s="9" t="s">
         <v>12</v>
       </c>
@@ -3627,40 +3744,79 @@
         <v>326</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E64" t="s">
+        <v>335</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
         <v>329</v>
       </c>
-      <c r="H64" s="10"/>
-    </row>
-    <row r="65" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H65" s="10"/>
-    </row>
-    <row r="66" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H66" s="10"/>
-    </row>
-    <row r="67" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H64" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="L64" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E65" t="s">
+        <v>335</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>330</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="L65" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E66" t="s">
+        <v>336</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>333</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="L66" s="12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="5:12" x14ac:dyDescent="0.3">
       <c r="H67" s="10"/>
     </row>
-    <row r="68" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:12" x14ac:dyDescent="0.3">
       <c r="H68" s="10"/>
     </row>
-    <row r="69" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:12" x14ac:dyDescent="0.3">
       <c r="H69" s="10"/>
     </row>
-    <row r="70" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:12" x14ac:dyDescent="0.3">
       <c r="H70" s="10"/>
     </row>
-    <row r="71" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:12" x14ac:dyDescent="0.3">
       <c r="H71" s="10"/>
     </row>
-    <row r="72" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:12" x14ac:dyDescent="0.3">
       <c r="H72" s="10"/>
     </row>
-    <row r="73" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:12" x14ac:dyDescent="0.3">
       <c r="H73" s="10"/>
     </row>
-    <row r="74" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:12" x14ac:dyDescent="0.3">
       <c r="H74" s="10"/>
     </row>
   </sheetData>
